--- a/File/Report_Tables.xlsx
+++ b/File/Report_Tables.xlsx
@@ -243,7 +243,7 @@
       <u val="single"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <b/>
@@ -310,14 +310,22 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <right style="thin">
         <color rgb="FF000000"/>
-      </left>
+      </right>
     </border>
     <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
     </border>
     <border>
       <left style="thin">
@@ -327,19 +335,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -366,17 +366,35 @@
     <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,6 +405,41 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">11</xdr:col>
+      <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
+      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">12</xdr:row>
+      <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="4114800" cy="4114800"/>
+    <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="1" name="Picture 1"/>
+        <xdr:cNvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
     <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
@@ -709,7 +762,7 @@
     <col min="2" max="2" width="11.31875" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="8.96125" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="12.4975" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="47.835" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="34.89375" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="13.67625" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="18.39125" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="18.39125" hidden="0" customWidth="1"/>
@@ -776,12 +829,12 @@
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -801,7 +854,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="8" t="n">
@@ -817,7 +870,7 @@
       <c r="J14" s="10"/>
     </row>
     <row r="15">
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="4" t="n">
@@ -832,12 +885,12 @@
       <c r="I15" s="6" t="n">
         <v>2593930.99</v>
       </c>
-      <c r="J15" s="13" t="n">
+      <c r="J15" s="12" t="n">
         <v>152584.175882353</v>
       </c>
     </row>
     <row r="16">
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="9" t="n">
@@ -852,21 +905,22 @@
       <c r="I16" s="11" t="n">
         <v>2888388.07</v>
       </c>
-      <c r="J16" s="15" t="n">
+      <c r="J16" s="13" t="n">
         <v>288838.807</v>
       </c>
     </row>
     <row r="17">
+      <c r="E17" s="19"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18">
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19">
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -886,7 +940,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="8" t="n">
@@ -902,7 +956,7 @@
       <c r="J20" s="10"/>
     </row>
     <row r="21">
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="4" t="n">
@@ -917,12 +971,12 @@
       <c r="I21" s="6" t="n">
         <v>172265.65</v>
       </c>
-      <c r="J21" s="13" t="n">
+      <c r="J21" s="12" t="n">
         <v>14355.4708333333</v>
       </c>
     </row>
     <row r="22">
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="4" t="n">
@@ -937,12 +991,12 @@
       <c r="I22" s="6" t="n">
         <v>2116750.65</v>
       </c>
-      <c r="J22" s="13" t="n">
+      <c r="J22" s="12" t="n">
         <v>211675.065</v>
       </c>
     </row>
     <row r="23">
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="4" t="n">
@@ -957,12 +1011,12 @@
       <c r="I23" s="6" t="n">
         <v>2989843.88</v>
       </c>
-      <c r="J23" s="13" t="n">
+      <c r="J23" s="12" t="n">
         <v>1494921.94</v>
       </c>
     </row>
     <row r="24">
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="9" t="n">
@@ -977,21 +1031,22 @@
       <c r="I24" s="11" t="n">
         <v>203458.88</v>
       </c>
-      <c r="J24" s="15" t="n">
+      <c r="J24" s="13" t="n">
         <v>67819.6266666667</v>
       </c>
     </row>
     <row r="25">
+      <c r="E25" s="19"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
     <row r="26">
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27">
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -1011,7 +1066,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="8" t="n">
@@ -1027,7 +1082,7 @@
       <c r="J28" s="10"/>
     </row>
     <row r="29">
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="4" t="n">
@@ -1042,12 +1097,12 @@
       <c r="I29" s="6" t="n">
         <v>4917825.47</v>
       </c>
-      <c r="J29" s="13" t="n">
+      <c r="J29" s="12" t="n">
         <v>234182.165238095</v>
       </c>
     </row>
     <row r="30">
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="18" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="9" t="n">
@@ -1062,21 +1117,22 @@
       <c r="I30" s="11" t="n">
         <v>564493.59</v>
       </c>
-      <c r="J30" s="15" t="n">
+      <c r="J30" s="13" t="n">
         <v>94082.265</v>
       </c>
     </row>
     <row r="31">
+      <c r="E31" s="19"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
     <row r="32">
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="15" t="s">
         <v>37</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -1096,7 +1152,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F34" s="8" t="n">
@@ -1112,7 +1168,7 @@
       <c r="J34" s="10"/>
     </row>
     <row r="35">
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="4" t="n">
@@ -1127,12 +1183,12 @@
       <c r="I35" s="6" t="n">
         <v>202199.01</v>
       </c>
-      <c r="J35" s="13" t="n">
+      <c r="J35" s="12" t="n">
         <v>13479.934</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="4" t="n">
@@ -1147,12 +1203,12 @@
       <c r="I36" s="6" t="n">
         <v>995749.29</v>
       </c>
-      <c r="J36" s="13" t="n">
+      <c r="J36" s="12" t="n">
         <v>142249.898571429</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="18" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="9" t="n">
@@ -1167,21 +1223,22 @@
       <c r="I37" s="11" t="n">
         <v>4284370.76</v>
       </c>
-      <c r="J37" s="15" t="n">
+      <c r="J37" s="13" t="n">
         <v>856874.152</v>
       </c>
     </row>
     <row r="38">
+      <c r="E38" s="19"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
     <row r="39">
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -1204,7 +1261,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="8"/>
@@ -1221,10 +1278,10 @@
       <c r="K41" s="10"/>
     </row>
     <row r="42">
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="20" t="s">
         <v>38</v>
       </c>
       <c r="G42" s="4" t="n">
@@ -1239,15 +1296,15 @@
       <c r="J42" s="6" t="n">
         <v>112123.02</v>
       </c>
-      <c r="K42" s="13" t="n">
+      <c r="K42" s="12" t="n">
         <v>11212.302</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="20" t="s">
         <v>39</v>
       </c>
       <c r="G43" s="4" t="n">
@@ -1262,15 +1319,15 @@
       <c r="J43" s="6" t="n">
         <v>995749.29</v>
       </c>
-      <c r="K43" s="13" t="n">
+      <c r="K43" s="12" t="n">
         <v>142249.898571429</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G44" s="4" t="n">
@@ -1285,15 +1342,15 @@
       <c r="J44" s="6" t="n">
         <v>3809953.16</v>
       </c>
-      <c r="K44" s="13" t="n">
+      <c r="K44" s="12" t="n">
         <v>952488.29</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="20" t="s">
         <v>38</v>
       </c>
       <c r="G45" s="4" t="n">
@@ -1308,15 +1365,15 @@
       <c r="J45" s="6" t="n">
         <v>90075.99</v>
       </c>
-      <c r="K45" s="13" t="n">
+      <c r="K45" s="12" t="n">
         <v>18015.198</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="20" t="s">
         <v>39</v>
       </c>
       <c r="G46" s="4" t="n">
@@ -1331,15 +1388,15 @@
       <c r="J46" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K46" s="13" t="n">
+      <c r="K46" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="21" t="s">
         <v>40</v>
       </c>
       <c r="G47" s="9" t="n">
@@ -1354,11 +1411,13 @@
       <c r="J47" s="11" t="n">
         <v>474417.6</v>
       </c>
-      <c r="K47" s="15" t="n">
+      <c r="K47" s="13" t="n">
         <v>474417.6</v>
       </c>
     </row>
     <row r="48">
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
     </row>
@@ -1377,7 +1436,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="5" max="5" width="59.21" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="43.145" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="13.67625" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="18.39125" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="12.4975" hidden="0" customWidth="1"/>
@@ -1391,12 +1450,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8">
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="15" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1416,7 +1475,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="8" t="n">
@@ -1432,7 +1491,7 @@
       <c r="J9" s="10"/>
     </row>
     <row r="10">
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="4" t="n">
@@ -1447,12 +1506,12 @@
       <c r="I10" s="6" t="n">
         <v>2596261.97</v>
       </c>
-      <c r="J10" s="13" t="n">
+      <c r="J10" s="12" t="n">
         <v>324532.74625</v>
       </c>
     </row>
     <row r="11">
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="9" t="n">
@@ -1467,21 +1526,22 @@
       <c r="I11" s="11" t="n">
         <v>2886057.09</v>
       </c>
-      <c r="J11" s="15" t="n">
+      <c r="J11" s="13" t="n">
         <v>962019.03</v>
       </c>
     </row>
     <row r="12">
+      <c r="E12" s="19"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
     <row r="13">
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="15" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1501,7 +1561,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="8" t="n">
@@ -1517,7 +1577,7 @@
       <c r="J15" s="10"/>
     </row>
     <row r="16">
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="4" t="n">
@@ -1532,12 +1592,12 @@
       <c r="I16" s="6" t="n">
         <v>2589944.41</v>
       </c>
-      <c r="J16" s="13" t="n">
+      <c r="J16" s="12" t="n">
         <v>369992.058571429</v>
       </c>
     </row>
     <row r="17">
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="4" t="n">
@@ -1552,12 +1612,12 @@
       <c r="I17" s="6" t="n">
         <v>2687169.61</v>
       </c>
-      <c r="J17" s="13" t="n">
+      <c r="J17" s="12" t="n">
         <v>2687169.61</v>
       </c>
     </row>
     <row r="18">
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="9" t="n">
@@ -1572,21 +1632,22 @@
       <c r="I18" s="11" t="n">
         <v>205205.04</v>
       </c>
-      <c r="J18" s="15" t="n">
+      <c r="J18" s="13" t="n">
         <v>68401.68</v>
       </c>
     </row>
     <row r="19">
+      <c r="E19" s="19"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
     <row r="20">
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="15" t="s">
         <v>59</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -1606,7 +1667,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="8" t="n">
@@ -1622,7 +1683,7 @@
       <c r="J22" s="10"/>
     </row>
     <row r="23">
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F23" s="4" t="n">
@@ -1637,12 +1698,12 @@
       <c r="I23" s="6" t="n">
         <v>4917825.47</v>
       </c>
-      <c r="J23" s="13" t="n">
+      <c r="J23" s="12" t="n">
         <v>614728.18375</v>
       </c>
     </row>
     <row r="24">
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="18" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="9" t="n">
@@ -1657,21 +1718,22 @@
       <c r="I24" s="11" t="n">
         <v>564493.59</v>
       </c>
-      <c r="J24" s="15" t="n">
+      <c r="J24" s="13" t="n">
         <v>188164.53</v>
       </c>
     </row>
     <row r="25">
+      <c r="E25" s="19"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
     <row r="26">
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27">
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -1691,7 +1753,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="8" t="n">
@@ -1707,7 +1769,7 @@
       <c r="J28" s="10"/>
     </row>
     <row r="29">
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="17" t="s">
         <v>62</v>
       </c>
       <c r="F29" s="4" t="n">
@@ -1722,12 +1784,12 @@
       <c r="I29" s="6" t="n">
         <v>5406336.7</v>
       </c>
-      <c r="J29" s="13" t="n">
+      <c r="J29" s="12" t="n">
         <v>216253.468</v>
       </c>
     </row>
     <row r="30">
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="18" t="s">
         <v>63</v>
       </c>
       <c r="F30" s="9" t="n">
@@ -1742,21 +1804,22 @@
       <c r="I30" s="11" t="n">
         <v>75982.36</v>
       </c>
-      <c r="J30" s="15" t="n">
+      <c r="J30" s="13" t="n">
         <v>37991.18</v>
       </c>
     </row>
     <row r="31">
+      <c r="E31" s="19"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
     <row r="32">
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="15" t="s">
         <v>66</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -1773,7 +1836,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F34" s="10" t="n">
@@ -1790,7 +1853,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="6" t="n">
@@ -1802,12 +1865,12 @@
       <c r="H35" s="6" t="n">
         <v>2299297.17</v>
       </c>
-      <c r="I35" s="13" t="n">
+      <c r="I35" s="12" t="n">
         <v>2596261.97</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="11" t="n">
@@ -1819,11 +1882,12 @@
       <c r="H36" s="11" t="n">
         <v>2687169.61</v>
       </c>
-      <c r="I36" s="15" t="n">
+      <c r="I36" s="13" t="n">
         <v>2886057.09</v>
       </c>
     </row>
     <row r="37">
+      <c r="E37" s="19"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -1832,5 +1896,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>